--- a/test-suite/uam/src/main/resources/testdata/testdata.xlsx
+++ b/test-suite/uam/src/main/resources/testdata/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\eclipse-workspace\test-suite\uam\src\main\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\git\Maven\test-suite\uam\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B30115-354B-41AB-843B-0C093D1CEEAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F7EC1-7C28-4850-9C48-D63FC8A806B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>sl_no</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>verify_update_customer_user</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1391,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
@@ -1799,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="8" t="s">
@@ -1826,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="8" t="s">
@@ -1853,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
@@ -1880,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8" t="s">
@@ -1907,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
@@ -1961,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">

--- a/test-suite/uam/src/main/resources/testdata/testdata.xlsx
+++ b/test-suite/uam/src/main/resources/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\git\Maven\test-suite\uam\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F7EC1-7C28-4850-9C48-D63FC8A806B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB9FC1-6562-4885-ACAF-AF96F780C8B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>sl_no</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>verify_update_customer_user</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1394,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
@@ -1931,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
@@ -1958,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">

--- a/test-suite/uam/src/main/resources/testdata/testdata.xlsx
+++ b/test-suite/uam/src/main/resources/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\git\Maven\test-suite\uam\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB9FC1-6562-4885-ACAF-AF96F780C8B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179E1DA-9B01-4387-B5ED-072FD033B69C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1394,7 +1394,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
@@ -1826,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="8" t="s">
@@ -1853,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8" t="s">
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
